--- a/CR - Cost Report/BOM/SU/SUA0100_to_SUA0400.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0100_to_SUA0400.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>System</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Carbon tube at the rear</t>
+  </si>
+  <si>
+    <t>Lower fr. bearing support</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,16 +806,16 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>33</v>

--- a/CR - Cost Report/BOM/SU/SUA0100_to_SUA0400.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0100_to_SUA0400.xlsx
@@ -620,7 +620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>31</v>
@@ -781,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>32</v>

--- a/CR - Cost Report/BOM/SU/SUA0100_to_SUA0400.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0100_to_SUA0400.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
   <si>
     <t>System</t>
   </si>
@@ -63,18 +63,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <t>A-arms front upper</t>
   </si>
   <si>
@@ -106,12 +94,6 @@
   </si>
   <si>
     <t>Back Carbon fiber tube</t>
-  </si>
-  <si>
-    <t>Spacer</t>
-  </si>
-  <si>
-    <t>Spacer type M6 - 16mm / Frame side</t>
   </si>
   <si>
     <t>Cylinder aluminium</t>
@@ -208,6 +190,66 @@
   </si>
   <si>
     <t>Lower fr. bearing support</t>
+  </si>
+  <si>
+    <t>SU_01007</t>
+  </si>
+  <si>
+    <t>Spherical bearing</t>
+  </si>
+  <si>
+    <t>M6, steel/steel contact</t>
+  </si>
+  <si>
+    <t>SU_01008</t>
+  </si>
+  <si>
+    <t>Spacer 1</t>
+  </si>
+  <si>
+    <t>Spacer 2</t>
+  </si>
+  <si>
+    <t>M6 type 16 mm spacer, frame side</t>
+  </si>
+  <si>
+    <t>M6 type 25 mm spacer, wheel side</t>
+  </si>
+  <si>
+    <t>SU_02005</t>
+  </si>
+  <si>
+    <t>SU_02006</t>
+  </si>
+  <si>
+    <t>SU_02007</t>
+  </si>
+  <si>
+    <t>SU_04005</t>
+  </si>
+  <si>
+    <t>SU_04006</t>
+  </si>
+  <si>
+    <t>SU_04007</t>
+  </si>
+  <si>
+    <t>Upper rr. bearing support</t>
+  </si>
+  <si>
+    <t>Lower rr. bearing support</t>
+  </si>
+  <si>
+    <t>SU_03005</t>
+  </si>
+  <si>
+    <t>SU_03006</t>
+  </si>
+  <si>
+    <t>SU_03007</t>
+  </si>
+  <si>
+    <t>SU_03008</t>
   </si>
 </sst>
 </file>
@@ -616,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -663,310 +705,314 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4">
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>34</v>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="4">
         <v>8</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -974,90 +1020,314 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="4">
         <v>8</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="G24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="4">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="4">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="4">
+        <v>6</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA0100_to_SUA0400.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0100_to_SUA0400.xlsx
@@ -174,18 +174,6 @@
     </r>
   </si>
   <si>
-    <t>SU_A0001</t>
-  </si>
-  <si>
-    <t>SU_A0002</t>
-  </si>
-  <si>
-    <t>SU_A0003</t>
-  </si>
-  <si>
-    <t>SU_A0004</t>
-  </si>
-  <si>
     <t>Carbon tube at the rear</t>
   </si>
   <si>
@@ -250,6 +238,18 @@
   </si>
   <si>
     <t>SU_03008</t>
+  </si>
+  <si>
+    <t>SU_A0200</t>
+  </si>
+  <si>
+    <t>SU_A0300</t>
+  </si>
+  <si>
+    <t>SU_A0400</t>
+  </si>
+  <si>
+    <t>SU_A0100</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,7 +712,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -795,13 +795,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4">
         <v>8</v>
@@ -814,13 +814,13 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
@@ -845,26 +845,26 @@
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -879,14 +879,14 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -962,57 +962,57 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4">
         <v>8</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4">
         <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4">
         <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1027,14 +1027,14 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>7</v>
@@ -1097,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -1110,38 +1110,38 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="4">
         <v>8</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" s="4">
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1160,26 +1160,26 @@
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F27" s="4">
         <v>6</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1194,14 +1194,14 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -1277,57 +1277,57 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F33" s="4">
         <v>8</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F34" s="4">
         <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F35" s="4">
         <v>6</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
